--- a/Assets/Docs/CryptWars.xlsx
+++ b/Assets/Docs/CryptWars.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teeni\Desktop\CryptWars\Assets\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>Type</t>
   </si>
@@ -55,12 +60,33 @@
   </si>
   <si>
     <t>Goblin</t>
+  </si>
+  <si>
+    <t>Warrior</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>icon_34</t>
+  </si>
+  <si>
+    <t>Увеличивает количество очков здоровья лекаря на 30%.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -91,20 +117,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -153,7 +211,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -186,9 +244,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,6 +296,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -399,9 +491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -468,12 +558,82 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="64" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
